--- a/public/samples/contracts-sample.xlsx
+++ b/public/samples/contracts-sample.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>client_email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>phone</t>
   </si>
   <si>
     <t>name</t>
@@ -32,19 +32,16 @@
     <t>billing_cycle</t>
   </si>
   <si>
-    <t>next_due_date</t>
-  </si>
-  <si>
-    <t>grace_period_days</t>
+    <t>dia_de_corte</t>
+  </si>
+  <si>
+    <t>reminder_date</t>
   </si>
   <si>
     <t>notes</t>
   </si>
   <si>
-    <t>juan@example.com</t>
-  </si>
-  <si>
-    <t>Contrato A</t>
+    <t>Streaming Premium</t>
   </si>
   <si>
     <t>CRC</t>
@@ -53,22 +50,37 @@
     <t>monthly</t>
   </si>
   <si>
-    <t>2025-12-01</t>
-  </si>
-  <si>
-    <t>Contrato por servicio</t>
-  </si>
-  <si>
-    <t>maria@example.com</t>
-  </si>
-  <si>
-    <t>Contrato B</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>one_time</t>
+    <t>2025-12-15</t>
+  </si>
+  <si>
+    <t>Renovación automática</t>
+  </si>
+  <si>
+    <t>Spotify Duo</t>
+  </si>
+  <si>
+    <t>2025-12-05</t>
+  </si>
+  <si>
+    <t>Plan familiar</t>
+  </si>
+  <si>
+    <t>TDMAX F2</t>
+  </si>
+  <si>
+    <t>2025-12-17</t>
+  </si>
+  <si>
+    <t>Suscripción mensual</t>
+  </si>
+  <si>
+    <t>TDMAX Básico</t>
+  </si>
+  <si>
+    <t>2025-12-02</t>
+  </si>
+  <si>
+    <t>Cliente activo</t>
   </si>
 </sst>
 </file>
@@ -408,13 +420,23 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="13.997" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="15.282" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="25.851" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -443,52 +465,108 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>50671663113</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2">
+        <v>7000</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>50000</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>50688974441</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>25000</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>50672707228</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4">
         <v>17</v>
       </c>
-      <c r="F3"/>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3"/>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>50683677150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
